--- a/DEMATELAnalysis.xlsx
+++ b/DEMATELAnalysis.xlsx
@@ -455,115 +455,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.593130561172947</v>
+        <v>7.292124779611089</v>
       </c>
       <c r="C2" t="n">
-        <v>2.210062899285768</v>
+        <v>7.464258440844478</v>
       </c>
       <c r="D2" t="n">
-        <v>4.803193460458715</v>
+        <v>14.75638322045557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3830676618871789</v>
+        <v>-0.1721336612333895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.067725787910327</v>
+        <v>7.172504469615672</v>
       </c>
       <c r="C3" t="n">
-        <v>2.593326288030269</v>
+        <v>7.714045320361872</v>
       </c>
       <c r="D3" t="n">
-        <v>4.661052075940596</v>
+        <v>14.88654978997754</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5256005001199422</v>
+        <v>-0.5415408507462001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.451901518410975</v>
+        <v>7.128507627724224</v>
       </c>
       <c r="C4" t="n">
-        <v>2.61053512503196</v>
+        <v>7.057461581961306</v>
       </c>
       <c r="D4" t="n">
-        <v>5.062436643442934</v>
+        <v>14.18596920968553</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1586336066209846</v>
+        <v>0.07104604576291784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.821654157650114</v>
+        <v>7.393980808148637</v>
       </c>
       <c r="C5" t="n">
-        <v>2.670205058272389</v>
+        <v>6.858718490404692</v>
       </c>
       <c r="D5" t="n">
-        <v>5.491859215922504</v>
+        <v>14.25269929855333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1514490993777251</v>
+        <v>0.5352623177439453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.051580413369406</v>
+        <v>7.449325080848572</v>
       </c>
       <c r="C6" t="n">
-        <v>1.933928304297532</v>
+        <v>7.453038062387082</v>
       </c>
       <c r="D6" t="n">
-        <v>3.985508717666938</v>
+        <v>14.90236314323565</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1176521090718734</v>
+        <v>-0.003712981538509297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.967461158723474</v>
+        <v>7.585124314433463</v>
       </c>
       <c r="C7" t="n">
-        <v>1.935395922319325</v>
+        <v>7.474045184422225</v>
       </c>
       <c r="D7" t="n">
-        <v>3.9028570810428</v>
+        <v>15.05916949885569</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03206523640414916</v>
+        <v>0.1110791300112375</v>
       </c>
     </row>
   </sheetData>
@@ -615,162 +615,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(0.8064419916321726,1.7499300120106218,5.223019679876045)</t>
+          <t>(0.974201452955807,2.570669475018213,18.331503410859245)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.6157247801075433,1.4105137686853293,4.60395014906443)</t>
+          <t>(1.0323243342080413,2.673071902664497,18.6873790856609)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(1.422166771739716,3.1604437806959513,9.826969828940475)</t>
+          <t>(2.006525787163848,5.24374137768271,37.01888249652015)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.19071721152462928,0.3394162433252925,0.6190695308116148)</t>
+          <t>(-0.058122881252234304,-0.10240242764628427,-0.3558756748016556)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.5387686845351867,1.2993123262402553,4.365096352955538)</t>
+          <t>(0.9649478408245855,2.521546143393719,18.031019424628713)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(0.8125914949226533,1.7492817021588414,5.218105667009312)</t>
+          <t>(1.0826331398535292,2.7941387732945957,19.265364047937492)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(1.3513601794578398,3.048594028399097,9.583202019964851)</t>
+          <t>(2.0475809806781147,5.315684916688315,37.296383472566205)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.2738228103874666,-0.4499693759185861,-0.8530093140537742)</t>
+          <t>(-0.11768529902894365,-0.27259262990087674,-1.234344623308779)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.765061796510175,1.6293203345130116,4.9613224242097385)</t>
+          <t>(0.9356795648153333,2.504446084048392,17.945397234308945)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.7680472391407913,1.7374692701447048,5.326088865810382)</t>
+          <t>(0.9234036563924065,2.45860964094262,17.79037144854889)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(1.5331090356509662,3.3667896046577166,10.28741129002012)</t>
+          <t>(1.8590832212077397,4.963055724991012,35.73576868285784)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(-0.0029854426306162862,-0.10814893563169314,-0.36476644160064353)</t>
+          <t>(0.012275908422926807,0.04583644310577206,0.15502578576005632)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.8987580771774425,1.9249877406778313,5.641216655095069)</t>
+          <t>(1.0099278450356093,2.6433698619659265,18.528644717444372)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(0.8954558064654133,1.821909239316827,5.293250129034928)</t>
+          <t>(0.8726762967413979,2.3697057088986044,17.333773465574073)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(1.7942138836428558,3.7468969799946583,10.934466784129997)</t>
+          <t>(1.8826041417770072,5.013075570864531,35.86241818301845)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.003302270712029154,0.10307850136100427,0.3479665260601408)</t>
+          <t>(0.13725154829421138,0.27366415306732206,1.1948712518702997)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.5287112128918537,1.2852694322712022,4.340760594945162)</t>
+          <t>(1.0038387339809156,2.6566882532905804,18.68744825527422)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.4955773047066905,1.1878574704724714,4.118350137713436)</t>
+          <t>(1.0252084508487989,2.6674076995683484,18.666498036744095)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(1.0242885175985443,2.4731269027436733,8.459110732658598)</t>
+          <t>(2.0290471848297145,5.324095952858929,37.353946292018314)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0.03313390818516326,0.0974119617987308,0.22241045723172626)</t>
+          <t>(-0.02136971686788325,-0.010719446277767997,0.020950218530124687)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.5109352901063283,1.214914917057038,4.176533269007058)</t>
+          <t>(1.070605560588637,2.738954482194423,18.945812900517325)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.4612804275100673,1.1967033119917863,4.1482040274561225)</t>
+          <t>(1.0229551201567142,2.6727405745425883,18.72643985856737)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.9722157176163957,2.411618229048824,8.32473729646318)</t>
+          <t>(2.0935606807453513,5.4116950567370115,37.6722527590847)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.04965486259626101,0.018211605065251657,0.02832924155093508)</t>
+          <t>(0.0476504404319229,0.06621390765183488,0.21937304194995377)</t>
         </is>
       </c>
     </row>
@@ -796,39 +796,39 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -838,39 +838,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.4555555555555555,0.6555555555555556,0.8555555555555556)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.4000000000000001,0.5888888888888889,0.7777777777777779)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.13999999999999999,0.18,0.2)</t>
+          <t>(0.36666666666666664,0.5444444444444444,0.7444444444444445)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.39999999999999997,0.588888888888889,0.7777777777777778)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.41111111111111115,0.5888888888888889,0.7777777777777778)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.41111111111111115,0.5888888888888889,0.7777777777777779)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -880,39 +880,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.8111111111111112)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.32222222222222224,0.47777777777777775,0.6777777777777778)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.41111111111111115,0.588888888888889,0.7777777777777779)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(0.0,0.02,0.06)</t>
+          <t>(0.4444444444444444,0.6333333333333333,0.8111111111111111)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.788888888888889)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.3888888888888889,0.5888888888888889,0.7888888888888891)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -922,39 +922,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.13999999999999999,0.18,0.2)</t>
+          <t>(0.2888888888888889,0.4555555555555555,0.6555555555555556)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.8)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.8000000000000002)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.43333333333333335,0.6111111111111112,0.8)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(0.13999999999999999,0.18,0.2)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.788888888888889)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.3222222222222222,0.5,0.7000000000000001)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -964,39 +964,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.5,0.7000000000000001,0.8666666666666667)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.43333333333333335,0.6333333333333333,0.8222222222222224)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.4000000000000001,0.588888888888889,0.7777777777777779)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.4555555555555555,0.6555555555555556,0.8444444444444446)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.39999999999999997,0.5888888888888889,0.7777777777777778)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.41111111111111115,0.6111111111111112,0.8000000000000002)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1006,39 +1006,39 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(0.0,0.02,0.06)</t>
+          <t>(0.4333333333333333,0.6333333333333333,0.8222222222222223)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.5,0.7,0.8777777777777779)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.0,0.02,0.06)</t>
+          <t>(0.5555555555555556,0.7444444444444445,0.8888888888888888)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.06,0.1,0.13999999999999999)</t>
+          <t>(0.3666666666666667,0.5222222222222221,0.7222222222222222)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.1,0.13999999999999999,0.18)</t>
+          <t>(0.41111111111111115,0.6111111111111112,0.8)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.04,0.06,0.1)</t>
+          <t>(0.4222222222222222,0.6111111111111112,0.8)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1069,39 +1069,39 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1111,39 +1111,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.10933333333333331,0.15733333333333333,0.20533333333333334)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09600000000000002,0.14133333333333334,0.18666666666666668)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.16666666666666663,0.21428571428571425,0.23809523809523808)</t>
+          <t>(0.08799999999999998,0.13066666666666665,0.17866666666666667)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.09599999999999999,0.14133333333333337,0.18666666666666665)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09866666666666667,0.14133333333333334,0.18666666666666665)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09866666666666667,0.14133333333333334,0.18666666666666668)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1153,39 +1153,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.19466666666666668)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.07733333333333334,0.11466666666666665,0.16266666666666665)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09866666666666667,0.14133333333333337,0.18666666666666668)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(0.0,0.023809523809523808,0.07142857142857142)</t>
+          <t>(0.10666666666666666,0.15199999999999997,0.19466666666666665)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.18933333333333335)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09333333333333332,0.14133333333333334,0.18933333333333335)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1195,39 +1195,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.16666666666666663,0.21428571428571425,0.23809523809523808)</t>
+          <t>(0.06933333333333333,0.10933333333333331,0.15733333333333333)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.192)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.19200000000000003)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.104,0.14666666666666667,0.192)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(0.16666666666666663,0.21428571428571425,0.23809523809523808)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.18933333333333335)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.07733333333333332,0.12,0.168)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1237,39 +1237,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.12,0.168,0.208)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.104,0.15199999999999997,0.19733333333333336)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09600000000000002,0.14133333333333337,0.18666666666666668)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.10933333333333331,0.15733333333333333,0.2026666666666667)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.09599999999999999,0.14133333333333334,0.18666666666666665)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.09866666666666667,0.14666666666666667,0.19200000000000003)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1279,39 +1279,39 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(0.0,0.023809523809523808,0.07142857142857142)</t>
+          <t>(0.10399999999999998,0.15199999999999997,0.19733333333333333)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.12,0.16799999999999998,0.21066666666666667)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.0,0.023809523809523808,0.07142857142857142)</t>
+          <t>(0.13333333333333333,0.17866666666666667,0.21333333333333332)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.07142857142857142,0.11904761904761904,0.16666666666666663)</t>
+          <t>(0.088,0.1253333333333333,0.1733333333333333)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.11904761904761904,0.16666666666666663,0.21428571428571425)</t>
+          <t>(0.09866666666666667,0.14666666666666667,0.192)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.047619047619047616,0.07142857142857142,0.11904761904761904)</t>
+          <t>(0.10133333333333333,0.14666666666666667,0.192)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1342,254 +1342,254 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(0.05829966397549187,0.1786945570884833,0.7158215786246712)</t>
+          <t>(0.09174656236232351,0.33293298651803277,2.9666643158035946)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.18435957550101276,0.3647179465837856,0.9874197481785436)</t>
+          <t>(0.1948914954741667,0.48410003168347243,3.2289498682963167)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(0.13864567758875995,0.32537205530252256,0.970726344986767)</t>
+          <t>(0.16985430009456592,0.43034616977172147,2.9818386643578956)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.22550518279782825,0.4067003229989413,1.0148068244310975)</t>
+          <t>(0.1583760637016553,0.41059343360439,2.9032496036128315)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.09142610776279969,0.21761392389327378,0.7472245009489256)</t>
+          <t>(0.17857119379669115,0.4559011687405438,3.1205738586920426)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0.10820578400628,0.2568312061436152,0.7870206827060401)</t>
+          <t>(0.1807618375264044,0.45679568470005216,3.130227100096565)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.10294010410663387,0.23581745494815645,0.7385468502694983)</t>
+          <t>(0.18079148962463318,0.4506297107781939,3.0754831112311)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(0.051582796112091434,0.16575682923464716,0.6801467994461055)</t>
+          <t>(0.09556078024991056,0.3416974431370796,3.008517151531888)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(0.1538267330208555,0.3043314276067937,0.8674064485768006)</t>
+          <t>(0.17354807297254526,0.4285804254117437,2.941199458684838)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.1013656700543779,0.23775090392436923,0.7934739553411315)</t>
+          <t>(0.14880191530901418,0.3927459636013395,2.846815886772613)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.09614740534629188,0.21566560988975111,0.6760153888160033)</t>
+          <t>(0.17978810556658154,0.4494008169479878,3.0719156451194114)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(0.03290597589493602,0.13999010063653766,0.6095069105059985)</t>
+          <t>(0.1864574771019008,0.4584917835173743,3.0870881712888614)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.10054134204668586,0.23299163980125076,0.7862092295287659)</t>
+          <t>(0.1801799535214433,0.45240290036836683,3.0634724653780765)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.13589290612993057,0.3073570357993279,0.907910009899216)</t>
+          <t>(0.17808247095687488,0.4632272008249867,3.153486112585151)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0.06696102946021114,0.20310439188925136,0.7856216845444575)</t>
+          <t>(0.07913385976443567,0.29872710323385293,2.765101135651045)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.22313756195955756,0.39229533731555083,0.9751927767059126)</t>
+          <t>(0.1398162423762567,0.38671909619831984,2.830238426267233)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.08838986502522359,0.20638368332819537,0.7143152700906157)</t>
+          <t>(0.17916729971335763,0.4511791329996777,3.06178101626828)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(0.15013909188856633,0.28718824637943546,0.7920734534407704)</t>
+          <t>(0.1792997384829651,0.45219065042318785,3.0713180781591594)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SOC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.1683692615287449,0.3365789586595476,0.947905167562579)</t>
+          <t>(0.18930245222296466,0.4703177190423731,3.159765747426917)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(0.22854690294396024,0.42028905941487277,1.0685273384399798)</t>
+          <t>(0.19210970570791983,0.4861815207274514,3.250804008162221)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0.1851258236356386,0.38216223309647324,1.0693374992952145)</t>
+          <t>(0.15720088677349034,0.42240821503313103,2.9987306566507583)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.08864701309174496,0.2480540666576722,0.8859831014600389)</t>
+          <t>(0.08093211907100469,0.3042221926387871,2.7819267299611097)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.11624341069069524,0.26914776609285745,0.8322362586228803)</t>
+          <t>(0.20187183616149235,0.48582818946441075,3.1676349899878815)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0.11182566528665863,0.2687556567564081,0.8372272897143768)</t>
+          <t>(0.18851084509873733,0.47441202505977326,3.1697825852554833)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.10304671575374268,0.23593770240121625,0.7366014470344262)</t>
+          <t>(0.1821928685054726,0.46801939557361666,3.1816858350596617)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.1589467912224097,0.30866745874253315,0.8545238112643457)</t>
+          <t>(0.19785186643497218,0.49580470600133647,3.286464636771911)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(0.1132429865124397,0.26608576955222113,0.8299282756801615)</t>
+          <t>(0.17221853258967382,0.44036296495940797,3.0364914601261694)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(0.09595358596970324,0.23117454505665938,0.7860568605915486)</t>
+          <t>(0.16974767692549952,0.43301162692114514,2.9663587141349312)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0.029825518249450466,0.10967760676471092,0.5315949854986722)</t>
+          <t>(0.09387861507580478,0.3433820901004679,3.0209354042972936)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(0.027695615184108006,0.1337263497538612,0.6020552148760078)</t>
+          <t>(0.18794917444949288,0.47610746973460594,3.1955122048842526)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.08252769269624409,0.1904934557866748,0.6788658760444893)</t>
+          <t>(0.208111007971204,0.49876919038391393,3.2403076107615485)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.05326252301324852,0.18249337238367505,0.7195779597811213)</t>
+          <t>(0.22413682102968502,0.5231278709202688,3.337142270590006)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.11024498892288631,0.2564133926974427,0.8030686127269804)</t>
+          <t>(0.1714480041976956,0.4381847625327627,3.0670100730781797)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.16084679259220144,0.30593406336363405,0.837736610505199)</t>
+          <t>(0.17500227935796753,0.4424133959346229,3.0051841048253545)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.07354499763222969,0.16936888050368293,0.6169637337363388)</t>
+          <t>(0.1919314005348714,0.4817163013152603,3.2236571223791866)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(0.03050829524951829,0.11021175232192858,0.520320476212929)</t>
+          <t>(0.09997604749721359,0.3547429611075948,3.07251171888305)</t>
         </is>
       </c>
     </row>
